--- a/최종 전처리 데이터 모음/2016/2016년 기준 최종 전처리 산업연관표(총거래표).xlsx
+++ b/최종 전처리 데이터 모음/2016/2016년 기준 최종 전처리 산업연관표(총거래표).xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/최종 전처리 데이터 모음/2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8E658A-30C4-F348-BBAA-CAD5EDA39C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DAE698-40FB-2540-8624-49FE9CCD8C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -534,17 +546,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
@@ -581,13 +594,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -700,13 +713,13 @@
         <v>36802202.129100002</v>
       </c>
       <c r="E2">
+        <v>10875</v>
+      </c>
+      <c r="F2">
+        <v>506188</v>
+      </c>
+      <c r="G2">
         <v>44178.607000000004</v>
-      </c>
-      <c r="F2">
-        <v>10875</v>
-      </c>
-      <c r="G2">
-        <v>506188</v>
       </c>
       <c r="H2">
         <v>23738</v>
@@ -759,6 +772,9 @@
       <c r="X2">
         <v>17056936</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
       <c r="Z2">
         <v>434515</v>
       </c>
@@ -768,6 +784,9 @@
       <c r="AB2">
         <v>1682655</v>
       </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
       <c r="AD2">
         <v>778098</v>
       </c>
@@ -788,6 +807,12 @@
       </c>
       <c r="AJ2">
         <v>11831226</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>72139433</v>
@@ -807,13 +832,13 @@
         <v>73242607</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>26096460</v>
       </c>
       <c r="F3">
-        <v>26096460</v>
+        <v>303825</v>
       </c>
       <c r="G3">
-        <v>303825</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -866,9 +891,21 @@
       <c r="X3">
         <v>13492</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
       <c r="AB3">
         <v>-1089056</v>
       </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
       <c r="AD3">
         <v>97601</v>
       </c>
@@ -889,6 +926,12 @@
       </c>
       <c r="AJ3">
         <v>94181010</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>98708377</v>
@@ -908,13 +951,13 @@
         <v>807600638.18420196</v>
       </c>
       <c r="E4">
+        <v>11595987.165999999</v>
+      </c>
+      <c r="F4">
+        <v>95416627.523000002</v>
+      </c>
+      <c r="G4">
         <v>8413256.7846924998</v>
-      </c>
-      <c r="F4">
-        <v>11595987.165999999</v>
-      </c>
-      <c r="G4">
-        <v>95416627.523000002</v>
       </c>
       <c r="H4">
         <v>35859301.7711</v>
@@ -967,6 +1010,9 @@
       <c r="X4">
         <v>188600080.88350001</v>
       </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
       <c r="Z4">
         <v>119823593.9867</v>
       </c>
@@ -976,6 +1022,9 @@
       <c r="AB4">
         <v>3831263.2650000001</v>
       </c>
+      <c r="AC4">
+        <v>1452642</v>
+      </c>
       <c r="AD4">
         <v>589112546.80729997</v>
       </c>
@@ -996,6 +1045,12 @@
       </c>
       <c r="AJ4">
         <v>394827884.66979998</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>2076248850.3405001</v>
@@ -1003,308 +1058,359 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1136210.327</v>
+        <v>889542</v>
       </c>
       <c r="C5">
-        <v>27853.862499999999</v>
+        <v>113300</v>
       </c>
       <c r="D5">
-        <v>31890600.974253401</v>
+        <v>36830168.965400003</v>
       </c>
       <c r="E5">
-        <v>2444597.9666909999</v>
+        <v>13165648</v>
       </c>
       <c r="F5">
-        <v>484530.84550000011</v>
+        <v>1028862</v>
       </c>
       <c r="G5">
-        <v>3960882.9</v>
+        <v>1799740.9609999999</v>
       </c>
       <c r="H5">
-        <v>1217244.6745</v>
+        <v>2206492</v>
       </c>
       <c r="I5">
-        <v>5959355.4530000007</v>
+        <v>4015217</v>
       </c>
       <c r="J5">
-        <v>3589326.9127167501</v>
+        <v>1311116.19</v>
       </c>
       <c r="K5">
-        <v>455146.02250000002</v>
+        <v>1374907</v>
       </c>
       <c r="L5">
-        <v>250230.2365</v>
+        <v>2496856</v>
       </c>
       <c r="M5">
-        <v>2256071.3584007001</v>
+        <v>7506595.5948999999</v>
       </c>
       <c r="N5">
-        <v>802291.66950000008</v>
+        <v>1789382</v>
       </c>
       <c r="O5">
-        <v>973956.33250000002</v>
+        <v>3806810</v>
       </c>
       <c r="P5">
-        <v>4717540.9135000007</v>
+        <v>3678891</v>
       </c>
       <c r="Q5">
-        <v>2414983.2355760001</v>
+        <v>2335612.2560000001</v>
       </c>
       <c r="R5">
-        <v>375574.08524660009</v>
+        <v>170651.03460000001</v>
       </c>
       <c r="S5">
-        <v>2740127.3073089998</v>
+        <v>2017313.0390000001</v>
       </c>
       <c r="T5">
-        <v>266589.24278325</v>
+        <v>206343.81</v>
       </c>
       <c r="U5">
-        <v>202543.2310993</v>
+        <v>553312.40509999997</v>
       </c>
       <c r="V5">
-        <v>38630.153423999996</v>
+        <v>46351.743999999999</v>
       </c>
       <c r="W5">
-        <v>66204287.704499997</v>
+        <v>87343113</v>
       </c>
       <c r="X5">
-        <v>38947399.841499999</v>
+        <v>20540687</v>
+      </c>
+      <c r="Y5">
+        <v>1175569</v>
       </c>
       <c r="Z5">
-        <v>5189736.3760000002</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>332709.26</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>326392.103</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>147925.58100000001</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>13089116.770500001</v>
+        <v>516818</v>
       </c>
       <c r="AE5">
-        <v>58033279.931999996</v>
+        <v>22233074</v>
       </c>
       <c r="AF5">
-        <v>124237567.6365</v>
+        <v>109576187</v>
       </c>
       <c r="AG5">
-        <v>122792364.49950001</v>
+        <v>109425224</v>
       </c>
       <c r="AH5">
-        <v>1445203.1370000001</v>
+        <v>150963</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1445203.1370000001</v>
+        <v>150963</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>124237567.6365</v>
+        <v>109576187</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>889542</v>
+        <v>82843</v>
       </c>
       <c r="C6">
-        <v>113300</v>
+        <v>16241</v>
       </c>
       <c r="D6">
-        <v>36830168.965400003</v>
+        <v>1152627.9219</v>
       </c>
       <c r="E6">
-        <v>1799740.9609999999</v>
+        <v>452647</v>
       </c>
       <c r="F6">
-        <v>13165648</v>
+        <v>81590</v>
       </c>
       <c r="G6">
-        <v>1028862</v>
+        <v>134998.46549999999</v>
       </c>
       <c r="H6">
-        <v>2206492</v>
+        <v>207885</v>
       </c>
       <c r="I6">
-        <v>4015217</v>
+        <v>267258</v>
       </c>
       <c r="J6">
-        <v>1311116.19</v>
+        <v>228693.4491</v>
       </c>
       <c r="K6">
-        <v>1374907</v>
+        <v>88660</v>
       </c>
       <c r="L6">
-        <v>2496856</v>
+        <v>7971994</v>
       </c>
       <c r="M6">
-        <v>7506595.5948999999</v>
+        <v>566997.21380000003</v>
       </c>
       <c r="N6">
-        <v>1789382</v>
+        <v>793459</v>
       </c>
       <c r="O6">
-        <v>3806810</v>
+        <v>177839</v>
       </c>
       <c r="P6">
-        <v>3678891</v>
+        <v>81701</v>
       </c>
       <c r="Q6">
-        <v>2335612.2560000001</v>
+        <v>185778.88800000001</v>
       </c>
       <c r="R6">
-        <v>170651.03460000001</v>
+        <v>11371.078100000001</v>
       </c>
       <c r="S6">
-        <v>2017313.0390000001</v>
+        <v>151318.53450000001</v>
       </c>
       <c r="T6">
-        <v>206343.81</v>
+        <v>47801.550900000002</v>
       </c>
       <c r="U6">
-        <v>553312.40509999997</v>
+        <v>77936.786200000002</v>
       </c>
       <c r="V6">
-        <v>46351.743999999999</v>
+        <v>3298.1120000000001</v>
       </c>
       <c r="W6">
-        <v>87343113</v>
+        <v>12782939</v>
       </c>
       <c r="X6">
-        <v>20540687</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1175569</v>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>182648999</v>
+      </c>
+      <c r="AA6">
+        <v>51231406</v>
+      </c>
+      <c r="AB6">
+        <v>249723</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>516818</v>
+        <v>248092</v>
       </c>
       <c r="AE6">
-        <v>22233074</v>
+        <v>234378220</v>
       </c>
       <c r="AF6">
-        <v>109576187</v>
+        <v>247161159</v>
       </c>
       <c r="AG6">
-        <v>109425224</v>
+        <v>247122823</v>
       </c>
       <c r="AH6">
-        <v>150963</v>
+        <v>38336</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>150963</v>
+        <v>38336</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>109576187</v>
+        <v>247161159</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>82843</v>
+        <v>1136210.327</v>
       </c>
       <c r="C7">
-        <v>16241</v>
+        <v>27853.862499999999</v>
       </c>
       <c r="D7">
-        <v>1152627.9219</v>
+        <v>31890600.974253401</v>
       </c>
       <c r="E7">
-        <v>134998.46549999999</v>
+        <v>484530.84550000011</v>
       </c>
       <c r="F7">
-        <v>452647</v>
+        <v>3960882.9</v>
       </c>
       <c r="G7">
-        <v>81590</v>
+        <v>2444597.9666909999</v>
       </c>
       <c r="H7">
-        <v>207885</v>
+        <v>1217244.6745</v>
       </c>
       <c r="I7">
-        <v>267258</v>
+        <v>5959355.4530000007</v>
       </c>
       <c r="J7">
-        <v>228693.4491</v>
+        <v>3589326.9127167501</v>
       </c>
       <c r="K7">
-        <v>88660</v>
+        <v>455146.02250000002</v>
       </c>
       <c r="L7">
-        <v>7971994</v>
+        <v>250230.2365</v>
       </c>
       <c r="M7">
-        <v>566997.21380000003</v>
+        <v>2256071.3584007001</v>
       </c>
       <c r="N7">
-        <v>793459</v>
+        <v>802291.66950000008</v>
       </c>
       <c r="O7">
-        <v>177839</v>
+        <v>973956.33250000002</v>
       </c>
       <c r="P7">
-        <v>81701</v>
+        <v>4717540.9135000007</v>
       </c>
       <c r="Q7">
-        <v>185778.88800000001</v>
+        <v>2414983.2355760001</v>
       </c>
       <c r="R7">
-        <v>11371.078100000001</v>
+        <v>375574.08524659998</v>
       </c>
       <c r="S7">
-        <v>151318.53450000001</v>
+        <v>2740127.3073089998</v>
       </c>
       <c r="T7">
-        <v>47801.550900000002</v>
+        <v>266589.24278325</v>
       </c>
       <c r="U7">
-        <v>77936.786200000002</v>
+        <v>202543.2310993</v>
       </c>
       <c r="V7">
-        <v>3298.1120000000001</v>
+        <v>38630.153423999996</v>
       </c>
       <c r="W7">
-        <v>12782939</v>
+        <v>66204287.704499997</v>
+      </c>
+      <c r="X7">
+        <v>38947399.841499999</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>182648999</v>
+        <v>5189736.3760000002</v>
       </c>
       <c r="AA7">
-        <v>51231406</v>
+        <v>332709.26</v>
       </c>
       <c r="AB7">
-        <v>249723</v>
+        <v>326392.103</v>
+      </c>
+      <c r="AC7">
+        <v>147925.58100000001</v>
       </c>
       <c r="AD7">
-        <v>248092</v>
+        <v>13089116.770500001</v>
       </c>
       <c r="AE7">
-        <v>234378220</v>
+        <v>58033279.931999996</v>
       </c>
       <c r="AF7">
-        <v>247161159</v>
+        <v>124237567.6365</v>
       </c>
       <c r="AG7">
-        <v>247122823</v>
+        <v>122792364.49950001</v>
       </c>
       <c r="AH7">
-        <v>38336</v>
+        <v>1445203.1370000001</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>38336</v>
+        <v>1445203.1370000001</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>247161159</v>
+        <v>124237567.6365</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1321,13 +1427,13 @@
         <v>43419305.3508</v>
       </c>
       <c r="E8">
+        <v>1507030</v>
+      </c>
+      <c r="F8">
+        <v>2082150</v>
+      </c>
+      <c r="G8">
         <v>8539792.4405000005</v>
-      </c>
-      <c r="F8">
-        <v>1507030</v>
-      </c>
-      <c r="G8">
-        <v>2082150</v>
       </c>
       <c r="H8">
         <v>22635374</v>
@@ -1380,6 +1486,9 @@
       <c r="X8">
         <v>26191482</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
       <c r="Z8">
         <v>260318</v>
       </c>
@@ -1407,8 +1516,17 @@
       <c r="AH8">
         <v>20816668</v>
       </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
       <c r="AJ8">
         <v>20816668</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>162159159</v>
@@ -1428,13 +1546,13 @@
         <v>10682736.347100001</v>
       </c>
       <c r="E9">
+        <v>674119</v>
+      </c>
+      <c r="F9">
+        <v>983359</v>
+      </c>
+      <c r="G9">
         <v>4808778.5210000006</v>
-      </c>
-      <c r="F9">
-        <v>674119</v>
-      </c>
-      <c r="G9">
-        <v>983359</v>
       </c>
       <c r="H9">
         <v>2102644</v>
@@ -1487,6 +1605,21 @@
       <c r="X9">
         <v>89325154</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
       <c r="AD9">
         <v>8480423</v>
       </c>
@@ -1502,8 +1635,17 @@
       <c r="AH9">
         <v>16681081</v>
       </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
       <c r="AJ9">
         <v>16681081</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>160862802</v>
@@ -1523,13 +1665,13 @@
         <v>4012255.5575773702</v>
       </c>
       <c r="E10">
+        <v>309372.02299999999</v>
+      </c>
+      <c r="F10">
+        <v>388245.73489999998</v>
+      </c>
+      <c r="G10">
         <v>4483935.509325251</v>
-      </c>
-      <c r="F10">
-        <v>309372.02299999999</v>
-      </c>
-      <c r="G10">
-        <v>388245.73489999998</v>
       </c>
       <c r="H10">
         <v>1381870.2139999999</v>
@@ -1562,7 +1704,7 @@
         <v>2043821.1536040001</v>
       </c>
       <c r="R10">
-        <v>54776.078922630011</v>
+        <v>54776.078922629997</v>
       </c>
       <c r="S10">
         <v>5026001.9441747498</v>
@@ -1582,9 +1724,21 @@
       <c r="X10">
         <v>30440378.7733</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
       <c r="Z10">
         <v>13344949.9979</v>
       </c>
+      <c r="AA10">
+        <v>113323.3784</v>
+      </c>
+      <c r="AB10">
+        <v>-15784.462</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
       <c r="AD10">
         <v>4399482.1025</v>
       </c>
@@ -1605,6 +1759,12 @@
       </c>
       <c r="AJ10">
         <v>3798387.7163</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>105674343.52770001</v>
@@ -1624,13 +1784,13 @@
         <v>17363021.9113</v>
       </c>
       <c r="E11">
+        <v>2083958</v>
+      </c>
+      <c r="F11">
+        <v>4742964</v>
+      </c>
+      <c r="G11">
         <v>3330375.1830000002</v>
-      </c>
-      <c r="F11">
-        <v>2083958</v>
-      </c>
-      <c r="G11">
-        <v>4742964</v>
       </c>
       <c r="H11">
         <v>2160204</v>
@@ -1683,6 +1843,21 @@
       <c r="X11">
         <v>65904691</v>
       </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
       <c r="AD11">
         <v>3025177</v>
       </c>
@@ -1698,8 +1873,17 @@
       <c r="AH11">
         <v>3355894</v>
       </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
       <c r="AJ11">
         <v>3355894</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>163472808</v>
@@ -1719,13 +1903,13 @@
         <v>3498913.3897000002</v>
       </c>
       <c r="E12">
+        <v>485344</v>
+      </c>
+      <c r="F12">
+        <v>670185</v>
+      </c>
+      <c r="G12">
         <v>6605506.1255000001</v>
-      </c>
-      <c r="F12">
-        <v>485344</v>
-      </c>
-      <c r="G12">
-        <v>670185</v>
       </c>
       <c r="H12">
         <v>1212116</v>
@@ -1778,12 +1962,21 @@
       <c r="X12">
         <v>118756056</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>30420740</v>
       </c>
       <c r="AA12">
         <v>20103</v>
       </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
       <c r="AD12">
         <v>360538</v>
       </c>
@@ -1799,8 +1992,17 @@
       <c r="AH12">
         <v>1671785</v>
       </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
       <c r="AJ12">
         <v>1671785</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>204043372</v>
@@ -1820,13 +2022,13 @@
         <v>56807429.690544493</v>
       </c>
       <c r="E13">
+        <v>3560853.0194999999</v>
+      </c>
+      <c r="F13">
+        <v>17514603.984700002</v>
+      </c>
+      <c r="G13">
         <v>9678234.3410717007</v>
-      </c>
-      <c r="F13">
-        <v>3560853.0194999999</v>
-      </c>
-      <c r="G13">
-        <v>17514603.984700002</v>
       </c>
       <c r="H13">
         <v>10595989.6369</v>
@@ -1835,7 +2037,7 @@
         <v>3438967.6985999998</v>
       </c>
       <c r="J13">
-        <v>9904227.0663503688</v>
+        <v>9904227.0663503706</v>
       </c>
       <c r="K13">
         <v>12308564.1603</v>
@@ -1879,12 +2081,21 @@
       <c r="X13">
         <v>7252855.1210000003</v>
       </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
       <c r="Z13">
         <v>56914545.646399997</v>
       </c>
       <c r="AA13">
         <v>5741682.3817999996</v>
       </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
       <c r="AD13">
         <v>25571434.5337</v>
       </c>
@@ -1900,8 +2111,17 @@
       <c r="AH13">
         <v>32231304.770599999</v>
       </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
       <c r="AJ13">
         <v>32231304.770599999</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>283009747.2726</v>
@@ -1983,6 +2203,18 @@
       <c r="Y14">
         <v>128391098</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
       <c r="AD14">
         <v>31947</v>
       </c>
@@ -1998,8 +2230,17 @@
       <c r="AH14">
         <v>788680</v>
       </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
       <c r="AJ14">
         <v>788680</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>134072466</v>
@@ -2019,13 +2260,13 @@
         <v>716322.53559999994</v>
       </c>
       <c r="E15">
+        <v>35544</v>
+      </c>
+      <c r="F15">
+        <v>56802</v>
+      </c>
+      <c r="G15">
         <v>295973.75199999998</v>
-      </c>
-      <c r="F15">
-        <v>35544</v>
-      </c>
-      <c r="G15">
-        <v>56802</v>
       </c>
       <c r="H15">
         <v>56602</v>
@@ -2081,6 +2322,18 @@
       <c r="Y15">
         <v>59827971</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
       <c r="AD15">
         <v>201337</v>
       </c>
@@ -2096,8 +2349,17 @@
       <c r="AH15">
         <v>2291478</v>
       </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
       <c r="AJ15">
         <v>2291478</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>120111675</v>
@@ -2117,13 +2379,13 @@
         <v>1344118.9521000001</v>
       </c>
       <c r="E16">
+        <v>109978</v>
+      </c>
+      <c r="F16">
+        <v>331096</v>
+      </c>
+      <c r="G16">
         <v>396989.79800000001</v>
-      </c>
-      <c r="F16">
-        <v>109978</v>
-      </c>
-      <c r="G16">
-        <v>331096</v>
       </c>
       <c r="H16">
         <v>157828</v>
@@ -2179,6 +2441,18 @@
       <c r="Y16">
         <v>74430533</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
       <c r="AD16">
         <v>381237</v>
       </c>
@@ -2194,8 +2468,17 @@
       <c r="AH16">
         <v>474906</v>
       </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
       <c r="AJ16">
         <v>474906</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>128958837</v>
@@ -2215,13 +2498,13 @@
         <v>5239342.3899911996</v>
       </c>
       <c r="E17">
-        <v>940922.14853600005</v>
+        <v>391274.51199999999</v>
       </c>
       <c r="F17">
-        <v>391274.51199999999</v>
+        <v>713520.24800000002</v>
       </c>
       <c r="G17">
-        <v>713520.24800000002</v>
+        <v>940922.14853600017</v>
       </c>
       <c r="H17">
         <v>3362823.56</v>
@@ -2254,7 +2537,7 @@
         <v>2128702.81984</v>
       </c>
       <c r="R17">
-        <v>54763.6340088</v>
+        <v>54763.634008800007</v>
       </c>
       <c r="S17">
         <v>1054670.9554640001</v>
@@ -2271,6 +2554,24 @@
       <c r="W17">
         <v>23481093.704</v>
       </c>
+      <c r="X17">
+        <v>77208868</v>
+      </c>
+      <c r="Y17">
+        <v>1470046</v>
+      </c>
+      <c r="Z17">
+        <v>490115</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>71114</v>
+      </c>
       <c r="AD17">
         <v>1611543.8160000001</v>
       </c>
@@ -2286,8 +2587,17 @@
       <c r="AH17">
         <v>5806212.3119999999</v>
       </c>
+      <c r="AI17">
+        <v>43</v>
+      </c>
       <c r="AJ17">
         <v>5806255.3119999999</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>104332780.52</v>
@@ -2307,13 +2617,13 @@
         <v>6519265.4981980314</v>
       </c>
       <c r="E18">
+        <v>202389.834</v>
+      </c>
+      <c r="F18">
+        <v>353590.47700000001</v>
+      </c>
+      <c r="G18">
         <v>243031.0468075001</v>
-      </c>
-      <c r="F18">
-        <v>202389.834</v>
-      </c>
-      <c r="G18">
-        <v>353590.47700000001</v>
       </c>
       <c r="H18">
         <v>248177.22889999999</v>
@@ -2366,6 +2676,9 @@
       <c r="X18">
         <v>464787.1165</v>
       </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
       <c r="Z18">
         <v>3665463.0133000002</v>
       </c>
@@ -2375,6 +2688,9 @@
       <c r="AB18">
         <v>110812.735</v>
       </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
       <c r="AD18">
         <v>3807235.1927</v>
       </c>
@@ -2395,6 +2711,12 @@
       </c>
       <c r="AJ18">
         <v>7496687.3302000007</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>23703946.659499999</v>
@@ -2414,13 +2736,13 @@
         <v>35745880.413346604</v>
       </c>
       <c r="E19">
+        <v>543106.15449999995</v>
+      </c>
+      <c r="F19">
+        <v>4439717.0999999996</v>
+      </c>
+      <c r="G19">
         <v>2740127.3073089998</v>
-      </c>
-      <c r="F19">
-        <v>543106.15449999995</v>
-      </c>
-      <c r="G19">
-        <v>4439717.0999999996</v>
       </c>
       <c r="H19">
         <v>1364398.3255</v>
@@ -2473,6 +2795,9 @@
       <c r="X19">
         <v>43655781.158500001</v>
       </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
       <c r="Z19">
         <v>5817127.6239999998</v>
       </c>
@@ -2500,8 +2825,17 @@
       <c r="AH19">
         <v>1619914.8629999999</v>
       </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
       <c r="AJ19">
         <v>1619914.8629999999</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
       </c>
       <c r="AM19">
         <v>139256743.3635</v>
@@ -2521,13 +2855,13 @@
         <v>1972446.22792263</v>
       </c>
       <c r="E20">
+        <v>147475.97700000001</v>
+      </c>
+      <c r="F20">
+        <v>141235.26509999999</v>
+      </c>
+      <c r="G20">
         <v>544996.26317475003</v>
-      </c>
-      <c r="F20">
-        <v>147475.97700000001</v>
-      </c>
-      <c r="G20">
-        <v>141235.26509999999</v>
       </c>
       <c r="H20">
         <v>453108.78600000002</v>
@@ -2563,7 +2897,7 @@
         <v>29143.135577370002</v>
       </c>
       <c r="S20">
-        <v>610881.28332525003</v>
+        <v>610881.28332524991</v>
       </c>
       <c r="T20">
         <v>1862524.49057307</v>
@@ -2580,6 +2914,9 @@
       <c r="X20">
         <v>2317156.2267</v>
       </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
       <c r="Z20">
         <v>15676473.0021</v>
       </c>
@@ -2589,6 +2926,9 @@
       <c r="AB20">
         <v>-21155.538</v>
       </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
       <c r="AD20">
         <v>2385538.8975</v>
       </c>
@@ -2609,6 +2949,12 @@
       </c>
       <c r="AJ20">
         <v>2247235.2837</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>40677935.4723</v>
@@ -2625,16 +2971,16 @@
         <v>15626.037700000001</v>
       </c>
       <c r="D21">
-        <v>6919558.4731555106</v>
+        <v>6919558.4731555097</v>
       </c>
       <c r="E21">
+        <v>345825.98050000001</v>
+      </c>
+      <c r="F21">
+        <v>7942377.0153000001</v>
+      </c>
+      <c r="G21">
         <v>121409.8714283</v>
-      </c>
-      <c r="F21">
-        <v>345825.98050000001</v>
-      </c>
-      <c r="G21">
-        <v>7942377.0153000001</v>
       </c>
       <c r="H21">
         <v>127663.3631</v>
@@ -2687,12 +3033,21 @@
       <c r="X21">
         <v>258864.87899999999</v>
       </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
       <c r="Z21">
         <v>5541835.3536</v>
       </c>
       <c r="AA21">
         <v>4510196.6182000004</v>
       </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
       <c r="AD21">
         <v>1749823.4663</v>
       </c>
@@ -2708,8 +3063,17 @@
       <c r="AH21">
         <v>6458372.2294000005</v>
       </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
       <c r="AJ21">
         <v>6458372.2294000005</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
       </c>
       <c r="AM21">
         <v>31271385.727400001</v>
@@ -2729,13 +3093,13 @@
         <v>793967.87850879994</v>
       </c>
       <c r="E22">
+        <v>50711.487999999998</v>
+      </c>
+      <c r="F22">
+        <v>83342.752000000008</v>
+      </c>
+      <c r="G22">
         <v>188555.15846400001</v>
-      </c>
-      <c r="F22">
-        <v>50711.487999999998</v>
-      </c>
-      <c r="G22">
-        <v>83342.752000000008</v>
       </c>
       <c r="H22">
         <v>226065.44</v>
@@ -2753,7 +3117,7 @@
         <v>54310.271999999997</v>
       </c>
       <c r="M22">
-        <v>571454.75402240013</v>
+        <v>571454.75402240001</v>
       </c>
       <c r="N22">
         <v>125447.96799999999</v>
@@ -2785,6 +3149,24 @@
       <c r="W22">
         <v>3700731.2960000001</v>
       </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
       <c r="AD22">
         <v>165.184</v>
       </c>
@@ -2800,8 +3182,17 @@
       <c r="AH22">
         <v>69410.688000000009</v>
       </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
       <c r="AJ22">
         <v>69410.688000000009</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
       </c>
       <c r="AM22">
         <v>3700896.48</v>
@@ -2821,13 +3212,13 @@
         <v>1182553409.7907</v>
       </c>
       <c r="E23">
+        <v>62253130</v>
+      </c>
+      <c r="F23">
+        <v>141741164</v>
+      </c>
+      <c r="G23">
         <v>55755400.251000002</v>
-      </c>
-      <c r="F23">
-        <v>62253130</v>
-      </c>
-      <c r="G23">
-        <v>141741164</v>
       </c>
       <c r="H23">
         <v>86346022</v>
@@ -2915,6 +3306,12 @@
       </c>
       <c r="AJ23">
         <v>608282683</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>4533380472</v>
@@ -2934,13 +3331,13 @@
         <v>177380631.73649999</v>
       </c>
       <c r="E24">
+        <v>10563937</v>
+      </c>
+      <c r="F24">
+        <v>73485424</v>
+      </c>
+      <c r="G24">
         <v>33933767.300999999</v>
-      </c>
-      <c r="F24">
-        <v>10563937</v>
-      </c>
-      <c r="G24">
-        <v>73485424</v>
       </c>
       <c r="H24">
         <v>31094894</v>
@@ -2989,6 +3386,54 @@
       </c>
       <c r="W24">
         <v>786190595</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -3005,13 +3450,13 @@
         <v>143703814.65709999</v>
       </c>
       <c r="E25">
+        <v>17741237</v>
+      </c>
+      <c r="F25">
+        <v>11780420</v>
+      </c>
+      <c r="G25">
         <v>23840166.4135</v>
-      </c>
-      <c r="F25">
-        <v>17741237</v>
-      </c>
-      <c r="G25">
-        <v>11780420</v>
       </c>
       <c r="H25">
         <v>7097577</v>
@@ -3060,6 +3505,54 @@
       </c>
       <c r="W25">
         <v>464402208</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -3076,13 +3569,13 @@
         <v>120203353.62549999</v>
       </c>
       <c r="E26">
+        <v>16231731</v>
+      </c>
+      <c r="F26">
+        <v>4157532</v>
+      </c>
+      <c r="G26">
         <v>3689453.0805000002</v>
-      </c>
-      <c r="F26">
-        <v>16231731</v>
-      </c>
-      <c r="G26">
-        <v>4157532</v>
       </c>
       <c r="H26">
         <v>20077462</v>
@@ -3131,6 +3624,54 @@
       </c>
       <c r="W26">
         <v>322804388</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -3147,13 +3688,13 @@
         <v>57579755.8609</v>
       </c>
       <c r="E27">
+        <v>2635189</v>
+      </c>
+      <c r="F27">
+        <v>15958283</v>
+      </c>
+      <c r="G27">
         <v>5573577.4535000008</v>
-      </c>
-      <c r="F27">
-        <v>2635189</v>
-      </c>
-      <c r="G27">
-        <v>15958283</v>
       </c>
       <c r="H27">
         <v>-3273464</v>
@@ -3202,6 +3743,54 @@
       </c>
       <c r="W27">
         <v>145889903</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -3218,13 +3807,13 @@
         <v>498867555.88</v>
       </c>
       <c r="E28">
+        <v>47172094</v>
+      </c>
+      <c r="F28">
+        <v>105381659</v>
+      </c>
+      <c r="G28">
         <v>67036964.248499997</v>
-      </c>
-      <c r="F28">
-        <v>47172094</v>
-      </c>
-      <c r="G28">
-        <v>105381659</v>
       </c>
       <c r="H28">
         <v>54996469</v>
@@ -3273,6 +3862,54 @@
       </c>
       <c r="W28">
         <v>1719287094</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -3289,13 +3926,13 @@
         <v>1681420965.6707001</v>
       </c>
       <c r="E29">
+        <v>109425224</v>
+      </c>
+      <c r="F29">
+        <v>247122823</v>
+      </c>
+      <c r="G29">
         <v>122792364.49950001</v>
-      </c>
-      <c r="F29">
-        <v>109425224</v>
-      </c>
-      <c r="G29">
-        <v>247122823</v>
       </c>
       <c r="H29">
         <v>141342491</v>
@@ -3344,6 +3981,54 @@
       </c>
       <c r="W29">
         <v>3925097789</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/최종 전처리 데이터 모음/2016/2016년 기준 최종 전처리 산업연관표(총거래표).xlsx
+++ b/최종 전처리 데이터 모음/2016/2016년 기준 최종 전처리 산업연관표(총거래표).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/최종 전처리 데이터 모음/2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DAE698-40FB-2540-8624-49FE9CCD8C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E93846-BC62-B241-B691-ADAC7DCA85C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:AG21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
